--- a/APM files/125625833/125625833 IMPORT remove old Promotions.xlsx
+++ b/APM files/125625833/125625833 IMPORT remove old Promotions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\125625833\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467EC70C-AB58-4BBE-BD13-81EAC2334147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF032584-0DFE-4686-8E78-D4F37E9A0EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="4695" windowWidth="21510" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13770" yWindow="5220" windowWidth="21510" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="115">
   <si>
     <t>Action Type</t>
   </si>
@@ -324,6 +324,60 @@
   </si>
   <si>
     <t>801848206</t>
+  </si>
+  <si>
+    <t>802522021</t>
+  </si>
+  <si>
+    <t>802522029</t>
+  </si>
+  <si>
+    <t>802522033</t>
+  </si>
+  <si>
+    <t>802522036</t>
+  </si>
+  <si>
+    <t>802522038</t>
+  </si>
+  <si>
+    <t>802522042</t>
+  </si>
+  <si>
+    <t>802522045</t>
+  </si>
+  <si>
+    <t>802522047</t>
+  </si>
+  <si>
+    <t>802522053</t>
+  </si>
+  <si>
+    <t>802522054</t>
+  </si>
+  <si>
+    <t>802522055</t>
+  </si>
+  <si>
+    <t>802522056</t>
+  </si>
+  <si>
+    <t>802522057</t>
+  </si>
+  <si>
+    <t>802522058</t>
+  </si>
+  <si>
+    <t>802522061</t>
+  </si>
+  <si>
+    <t>802522062</t>
+  </si>
+  <si>
+    <t>802522064</t>
+  </si>
+  <si>
+    <t>802522065</t>
   </si>
 </sst>
 </file>
@@ -686,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,10 +893,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -853,10 +907,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -898,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -912,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -954,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -968,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -1007,10 +1061,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1021,10 +1075,10 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -1035,10 +1089,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1049,10 +1103,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -1402,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1416,7 +1470,7 @@
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -1430,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -1444,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1794,7 +1848,7 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1808,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -1822,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1836,7 +1890,7 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -2183,10 +2237,10 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
@@ -2197,10 +2251,10 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
         <v>5</v>
@@ -2211,10 +2265,10 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
         <v>5</v>
@@ -2225,10 +2279,10 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D110" t="s">
         <v>5</v>
@@ -2239,10 +2293,10 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D111" t="s">
         <v>5</v>
@@ -2253,10 +2307,10 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D112" t="s">
         <v>5</v>
@@ -2267,10 +2321,10 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D113" t="s">
         <v>5</v>
@@ -2281,10 +2335,10 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D114" t="s">
         <v>5</v>
@@ -2295,10 +2349,10 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
@@ -2309,10 +2363,10 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
@@ -2323,10 +2377,10 @@
         <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
@@ -2337,10 +2391,10 @@
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D118" t="s">
         <v>5</v>
@@ -2351,10 +2405,10 @@
         <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
@@ -2365,10 +2419,10 @@
         <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -2379,10 +2433,10 @@
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -2393,10 +2447,10 @@
         <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
@@ -2407,10 +2461,10 @@
         <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
@@ -2421,10 +2475,10 @@
         <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D124" t="s">
         <v>5</v>
@@ -2435,10 +2489,10 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2449,10 +2503,10 @@
         <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D126" t="s">
         <v>5</v>
@@ -2463,10 +2517,10 @@
         <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D127" t="s">
         <v>5</v>
@@ -2477,10 +2531,10 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D128" t="s">
         <v>5</v>
@@ -2491,10 +2545,10 @@
         <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D129" t="s">
         <v>5</v>
@@ -2505,10 +2559,10 @@
         <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D130" t="s">
         <v>5</v>
@@ -2519,10 +2573,10 @@
         <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D131" t="s">
         <v>5</v>
@@ -2533,10 +2587,10 @@
         <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D132" t="s">
         <v>5</v>
@@ -2547,10 +2601,10 @@
         <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D133" t="s">
         <v>5</v>
@@ -2561,10 +2615,10 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D134" t="s">
         <v>5</v>
@@ -2575,10 +2629,10 @@
         <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D135" t="s">
         <v>5</v>
@@ -2589,10 +2643,10 @@
         <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D136" t="s">
         <v>5</v>
@@ -2603,10 +2657,10 @@
         <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="D137" t="s">
         <v>5</v>
@@ -2617,10 +2671,10 @@
         <v>4</v>
       </c>
       <c r="B138" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="D138" t="s">
         <v>5</v>
@@ -2631,10 +2685,10 @@
         <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
         <v>5</v>
@@ -2645,10 +2699,10 @@
         <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
         <v>5</v>
@@ -2659,10 +2713,10 @@
         <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C141" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D141" t="s">
         <v>5</v>
@@ -2673,10 +2727,10 @@
         <v>4</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C142" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
         <v>5</v>
@@ -2687,10 +2741,10 @@
         <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C143" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D143" t="s">
         <v>5</v>
@@ -2701,10 +2755,10 @@
         <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C144" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
         <v>5</v>
@@ -2715,10 +2769,10 @@
         <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
         <v>5</v>
@@ -2729,10 +2783,10 @@
         <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C146" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D146" t="s">
         <v>5</v>
@@ -2743,10 +2797,10 @@
         <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D147" t="s">
         <v>5</v>
@@ -2757,10 +2811,10 @@
         <v>4</v>
       </c>
       <c r="B148" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C148" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D148" t="s">
         <v>5</v>
@@ -2771,10 +2825,10 @@
         <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C149" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D149" t="s">
         <v>5</v>
@@ -2785,10 +2839,10 @@
         <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C150" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D150" t="s">
         <v>5</v>
@@ -2799,10 +2853,10 @@
         <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C151" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D151" t="s">
         <v>5</v>
@@ -2813,10 +2867,10 @@
         <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C152" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
         <v>5</v>
@@ -2827,10 +2881,10 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C153" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
         <v>5</v>
@@ -2841,10 +2895,10 @@
         <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C154" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D154" t="s">
         <v>5</v>
@@ -2855,10 +2909,10 @@
         <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C155" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
@@ -2869,10 +2923,10 @@
         <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C156" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D156" t="s">
         <v>5</v>
@@ -2883,10 +2937,10 @@
         <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C157" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D157" t="s">
         <v>5</v>
@@ -2897,10 +2951,10 @@
         <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C158" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D158" t="s">
         <v>5</v>
@@ -2911,10 +2965,10 @@
         <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D159" t="s">
         <v>5</v>
@@ -2925,10 +2979,10 @@
         <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C160" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D160" t="s">
         <v>5</v>
@@ -2939,10 +2993,10 @@
         <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C161" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D161" t="s">
         <v>5</v>
@@ -2953,10 +3007,10 @@
         <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C162" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D162" t="s">
         <v>5</v>
@@ -2967,10 +3021,10 @@
         <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C163" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
@@ -2981,10 +3035,10 @@
         <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D164" t="s">
         <v>5</v>
@@ -2995,10 +3049,10 @@
         <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C165" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D165" t="s">
         <v>5</v>
@@ -3009,10 +3063,10 @@
         <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C166" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D166" t="s">
         <v>5</v>
@@ -3023,10 +3077,10 @@
         <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C167" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
@@ -3037,10 +3091,10 @@
         <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C168" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D168" t="s">
         <v>5</v>
@@ -3051,10 +3105,10 @@
         <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C169" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D169" t="s">
         <v>5</v>
@@ -3065,10 +3119,10 @@
         <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D170" t="s">
         <v>5</v>
@@ -3079,10 +3133,10 @@
         <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C171" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D171" t="s">
         <v>5</v>
@@ -3093,10 +3147,10 @@
         <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C172" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D172" t="s">
         <v>5</v>
@@ -3107,10 +3161,10 @@
         <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C173" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D173" t="s">
         <v>5</v>
@@ -3121,10 +3175,10 @@
         <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C174" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D174" t="s">
         <v>5</v>
@@ -3135,10 +3189,10 @@
         <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D175" t="s">
         <v>5</v>
@@ -3149,10 +3203,10 @@
         <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D176" t="s">
         <v>5</v>
@@ -3163,10 +3217,10 @@
         <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C177" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D177" t="s">
         <v>5</v>
@@ -3177,10 +3231,10 @@
         <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C178" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D178" t="s">
         <v>5</v>
@@ -3191,10 +3245,10 @@
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C179" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D179" t="s">
         <v>5</v>
@@ -3205,10 +3259,10 @@
         <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C180" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D180" t="s">
         <v>5</v>
@@ -3219,10 +3273,10 @@
         <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C181" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D181" t="s">
         <v>5</v>
@@ -3233,10 +3287,10 @@
         <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C182" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D182" t="s">
         <v>5</v>
@@ -3247,10 +3301,10 @@
         <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C183" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D183" t="s">
         <v>5</v>
@@ -3261,10 +3315,10 @@
         <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C184" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D184" t="s">
         <v>5</v>
@@ -3275,10 +3329,10 @@
         <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C185" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D185" t="s">
         <v>5</v>
@@ -3289,10 +3343,10 @@
         <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C186" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D186" t="s">
         <v>5</v>
@@ -3303,10 +3357,10 @@
         <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C187" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D187" t="s">
         <v>5</v>
@@ -3317,10 +3371,10 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C188" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D188" t="s">
         <v>5</v>
@@ -3331,10 +3385,10 @@
         <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C189" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D189" t="s">
         <v>5</v>
@@ -3345,10 +3399,10 @@
         <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C190" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D190" t="s">
         <v>5</v>
@@ -3359,10 +3413,10 @@
         <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C191" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D191" t="s">
         <v>5</v>
@@ -3373,10 +3427,10 @@
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D192" t="s">
         <v>5</v>
@@ -3387,10 +3441,10 @@
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C193" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D193" t="s">
         <v>5</v>
@@ -3401,10 +3455,10 @@
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C194" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D194" t="s">
         <v>5</v>
@@ -3415,10 +3469,10 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D195" t="s">
         <v>5</v>
@@ -3429,10 +3483,10 @@
         <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C196" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D196" t="s">
         <v>5</v>
@@ -3443,10 +3497,10 @@
         <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C197" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D197" t="s">
         <v>5</v>
@@ -3457,10 +3511,10 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C198" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D198" t="s">
         <v>5</v>
@@ -3471,10 +3525,10 @@
         <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C199" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D199" t="s">
         <v>5</v>
@@ -3485,10 +3539,10 @@
         <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C200" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D200" t="s">
         <v>5</v>
@@ -3499,10 +3553,10 @@
         <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C201" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D201" t="s">
         <v>5</v>
@@ -3513,10 +3567,10 @@
         <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C202" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D202" t="s">
         <v>5</v>
@@ -3527,10 +3581,10 @@
         <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C203" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D203" t="s">
         <v>5</v>
@@ -3541,10 +3595,10 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C204" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D204" t="s">
         <v>5</v>
@@ -3555,10 +3609,10 @@
         <v>4</v>
       </c>
       <c r="B205" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C205" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D205" t="s">
         <v>5</v>
@@ -3569,10 +3623,10 @@
         <v>4</v>
       </c>
       <c r="B206" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C206" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D206" t="s">
         <v>5</v>
@@ -3583,10 +3637,10 @@
         <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C207" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D207" t="s">
         <v>5</v>
@@ -3597,10 +3651,10 @@
         <v>4</v>
       </c>
       <c r="B208" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C208" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D208" t="s">
         <v>5</v>
@@ -3611,10 +3665,10 @@
         <v>4</v>
       </c>
       <c r="B209" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C209" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D209" t="s">
         <v>5</v>
@@ -3625,10 +3679,10 @@
         <v>4</v>
       </c>
       <c r="B210" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C210" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D210" t="s">
         <v>5</v>
@@ -3639,10 +3693,10 @@
         <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C211" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D211" t="s">
         <v>5</v>
@@ -3653,10 +3707,10 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C212" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D212" t="s">
         <v>5</v>
@@ -3667,10 +3721,10 @@
         <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C213" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D213" t="s">
         <v>5</v>
@@ -3681,10 +3735,10 @@
         <v>4</v>
       </c>
       <c r="B214" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C214" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D214" t="s">
         <v>5</v>
@@ -3695,10 +3749,10 @@
         <v>4</v>
       </c>
       <c r="B215" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C215" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D215" t="s">
         <v>5</v>
@@ -3709,10 +3763,10 @@
         <v>4</v>
       </c>
       <c r="B216" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C216" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D216" t="s">
         <v>5</v>
@@ -3723,10 +3777,10 @@
         <v>4</v>
       </c>
       <c r="B217" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C217" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D217" t="s">
         <v>5</v>
@@ -3737,10 +3791,10 @@
         <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C218" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D218" t="s">
         <v>5</v>
@@ -3751,10 +3805,10 @@
         <v>4</v>
       </c>
       <c r="B219" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C219" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D219" t="s">
         <v>5</v>
@@ -3765,10 +3819,10 @@
         <v>4</v>
       </c>
       <c r="B220" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C220" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D220" t="s">
         <v>5</v>
@@ -3779,10 +3833,10 @@
         <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C221" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D221" t="s">
         <v>5</v>
@@ -3793,10 +3847,10 @@
         <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C222" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D222" t="s">
         <v>5</v>
@@ -3807,10 +3861,10 @@
         <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C223" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D223" t="s">
         <v>5</v>
@@ -3821,10 +3875,10 @@
         <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C224" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D224" t="s">
         <v>5</v>
@@ -3835,10 +3889,10 @@
         <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C225" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D225" t="s">
         <v>5</v>
@@ -3849,10 +3903,10 @@
         <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C226" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D226" t="s">
         <v>5</v>
@@ -3863,10 +3917,10 @@
         <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C227" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D227" t="s">
         <v>5</v>
@@ -3877,10 +3931,10 @@
         <v>4</v>
       </c>
       <c r="B228" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C228" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D228" t="s">
         <v>5</v>
@@ -3891,10 +3945,10 @@
         <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C229" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D229" t="s">
         <v>5</v>
@@ -3905,10 +3959,10 @@
         <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C230" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D230" t="s">
         <v>5</v>
@@ -3919,10 +3973,10 @@
         <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C231" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D231" t="s">
         <v>5</v>
@@ -3933,10 +3987,10 @@
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C232" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D232" t="s">
         <v>5</v>
@@ -3947,10 +4001,10 @@
         <v>4</v>
       </c>
       <c r="B233" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C233" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D233" t="s">
         <v>5</v>
@@ -3961,10 +4015,10 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C234" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D234" t="s">
         <v>5</v>
@@ -3975,10 +4029,10 @@
         <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C235" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D235" t="s">
         <v>5</v>
@@ -3989,10 +4043,10 @@
         <v>4</v>
       </c>
       <c r="B236" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C236" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D236" t="s">
         <v>5</v>
@@ -4003,10 +4057,10 @@
         <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C237" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D237" t="s">
         <v>5</v>
@@ -4017,10 +4071,10 @@
         <v>4</v>
       </c>
       <c r="B238" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C238" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D238" t="s">
         <v>5</v>
@@ -4031,10 +4085,10 @@
         <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C239" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D239" t="s">
         <v>5</v>
@@ -4045,10 +4099,10 @@
         <v>4</v>
       </c>
       <c r="B240" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C240" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D240" t="s">
         <v>5</v>
@@ -4059,10 +4113,10 @@
         <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C241" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D241" t="s">
         <v>5</v>
@@ -4073,10 +4127,10 @@
         <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C242" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D242" t="s">
         <v>5</v>
@@ -4087,10 +4141,10 @@
         <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C243" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D243" t="s">
         <v>5</v>
@@ -4101,10 +4155,10 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C244" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D244" t="s">
         <v>5</v>
@@ -4115,10 +4169,10 @@
         <v>4</v>
       </c>
       <c r="B245" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C245" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D245" t="s">
         <v>5</v>
@@ -4129,10 +4183,10 @@
         <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C246" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D246" t="s">
         <v>5</v>
@@ -4143,10 +4197,10 @@
         <v>4</v>
       </c>
       <c r="B247" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C247" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D247" t="s">
         <v>5</v>
@@ -4157,10 +4211,10 @@
         <v>4</v>
       </c>
       <c r="B248" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C248" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D248" t="s">
         <v>5</v>
@@ -4171,10 +4225,10 @@
         <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C249" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D249" t="s">
         <v>5</v>
@@ -4185,10 +4239,10 @@
         <v>4</v>
       </c>
       <c r="B250" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C250" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D250" t="s">
         <v>5</v>
@@ -4199,10 +4253,10 @@
         <v>4</v>
       </c>
       <c r="B251" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C251" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D251" t="s">
         <v>5</v>
@@ -4213,10 +4267,10 @@
         <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C252" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D252" t="s">
         <v>5</v>
@@ -4227,10 +4281,10 @@
         <v>4</v>
       </c>
       <c r="B253" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C253" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D253" t="s">
         <v>5</v>
@@ -4241,10 +4295,10 @@
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C254" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D254" t="s">
         <v>5</v>
@@ -4255,10 +4309,10 @@
         <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C255" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D255" t="s">
         <v>5</v>
@@ -4269,10 +4323,10 @@
         <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C256" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D256" t="s">
         <v>5</v>
@@ -4283,10 +4337,10 @@
         <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C257" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="D257" t="s">
         <v>5</v>
@@ -4297,10 +4351,10 @@
         <v>4</v>
       </c>
       <c r="B258" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C258" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D258" t="s">
         <v>5</v>
@@ -4311,10 +4365,10 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C259" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D259" t="s">
         <v>5</v>
@@ -4325,10 +4379,10 @@
         <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C260" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D260" t="s">
         <v>5</v>
@@ -4339,10 +4393,10 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C261" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D261" t="s">
         <v>5</v>
@@ -4353,10 +4407,10 @@
         <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C262" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D262" t="s">
         <v>5</v>
@@ -4367,10 +4421,10 @@
         <v>4</v>
       </c>
       <c r="B263" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C263" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D263" t="s">
         <v>5</v>
@@ -4381,10 +4435,10 @@
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C264" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="D264" t="s">
         <v>5</v>
@@ -4395,10 +4449,10 @@
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C265" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="D265" t="s">
         <v>5</v>
@@ -4409,10 +4463,10 @@
         <v>4</v>
       </c>
       <c r="B266" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C266" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D266" t="s">
         <v>5</v>
@@ -4423,10 +4477,10 @@
         <v>4</v>
       </c>
       <c r="B267" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C267" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D267" t="s">
         <v>5</v>
@@ -4437,10 +4491,10 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C268" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D268" t="s">
         <v>5</v>
@@ -4451,10 +4505,10 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C269" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D269" t="s">
         <v>5</v>
@@ -4465,10 +4519,10 @@
         <v>4</v>
       </c>
       <c r="B270" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C270" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D270" t="s">
         <v>5</v>
@@ -4479,10 +4533,10 @@
         <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C271" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D271" t="s">
         <v>5</v>
@@ -4493,10 +4547,10 @@
         <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C272" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D272" t="s">
         <v>5</v>
@@ -4507,10 +4561,10 @@
         <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C273" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D273" t="s">
         <v>5</v>
@@ -4521,10 +4575,10 @@
         <v>4</v>
       </c>
       <c r="B274" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C274" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D274" t="s">
         <v>5</v>
@@ -4535,10 +4589,10 @@
         <v>4</v>
       </c>
       <c r="B275" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C275" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D275" t="s">
         <v>5</v>
@@ -4549,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B276" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C276" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D276" t="s">
         <v>5</v>
@@ -4563,10 +4617,10 @@
         <v>4</v>
       </c>
       <c r="B277" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C277" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D277" t="s">
         <v>5</v>
@@ -4577,10 +4631,10 @@
         <v>4</v>
       </c>
       <c r="B278" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C278" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D278" t="s">
         <v>5</v>
@@ -4591,10 +4645,10 @@
         <v>4</v>
       </c>
       <c r="B279" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C279" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D279" t="s">
         <v>5</v>
@@ -4605,10 +4659,10 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C280" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D280" t="s">
         <v>5</v>
@@ -4619,10 +4673,10 @@
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C281" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D281" t="s">
         <v>5</v>
@@ -4633,10 +4687,10 @@
         <v>4</v>
       </c>
       <c r="B282" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C282" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D282" t="s">
         <v>5</v>
@@ -4647,10 +4701,10 @@
         <v>4</v>
       </c>
       <c r="B283" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C283" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D283" t="s">
         <v>5</v>
@@ -4661,10 +4715,10 @@
         <v>4</v>
       </c>
       <c r="B284" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C284" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D284" t="s">
         <v>5</v>
@@ -4675,10 +4729,10 @@
         <v>4</v>
       </c>
       <c r="B285" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C285" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D285" t="s">
         <v>5</v>
@@ -4689,10 +4743,10 @@
         <v>4</v>
       </c>
       <c r="B286" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C286" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D286" t="s">
         <v>5</v>
@@ -4703,10 +4757,10 @@
         <v>4</v>
       </c>
       <c r="B287" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C287" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D287" t="s">
         <v>5</v>
@@ -4717,10 +4771,10 @@
         <v>4</v>
       </c>
       <c r="B288" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C288" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D288" t="s">
         <v>5</v>
@@ -4731,10 +4785,10 @@
         <v>4</v>
       </c>
       <c r="B289" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C289" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D289" t="s">
         <v>5</v>
@@ -4745,10 +4799,10 @@
         <v>4</v>
       </c>
       <c r="B290" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C290" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D290" t="s">
         <v>5</v>
@@ -4759,10 +4813,10 @@
         <v>4</v>
       </c>
       <c r="B291" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C291" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D291" t="s">
         <v>5</v>
@@ -4773,10 +4827,10 @@
         <v>4</v>
       </c>
       <c r="B292" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C292" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D292" t="s">
         <v>5</v>
@@ -4787,10 +4841,10 @@
         <v>4</v>
       </c>
       <c r="B293" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C293" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D293" t="s">
         <v>5</v>
@@ -4801,10 +4855,10 @@
         <v>4</v>
       </c>
       <c r="B294" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C294" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D294" t="s">
         <v>5</v>
@@ -4815,10 +4869,10 @@
         <v>4</v>
       </c>
       <c r="B295" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C295" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D295" t="s">
         <v>5</v>
@@ -4829,10 +4883,10 @@
         <v>4</v>
       </c>
       <c r="B296" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C296" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D296" t="s">
         <v>5</v>
@@ -4843,10 +4897,10 @@
         <v>4</v>
       </c>
       <c r="B297" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C297" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D297" t="s">
         <v>5</v>
@@ -4857,10 +4911,10 @@
         <v>4</v>
       </c>
       <c r="B298" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C298" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D298" t="s">
         <v>5</v>
@@ -4871,10 +4925,10 @@
         <v>4</v>
       </c>
       <c r="B299" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C299" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D299" t="s">
         <v>5</v>
@@ -4885,10 +4939,10 @@
         <v>4</v>
       </c>
       <c r="B300" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C300" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D300" t="s">
         <v>5</v>
@@ -4899,10 +4953,10 @@
         <v>4</v>
       </c>
       <c r="B301" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C301" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D301" t="s">
         <v>5</v>
@@ -4913,10 +4967,10 @@
         <v>4</v>
       </c>
       <c r="B302" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C302" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D302" t="s">
         <v>5</v>
@@ -4927,10 +4981,10 @@
         <v>4</v>
       </c>
       <c r="B303" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C303" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D303" t="s">
         <v>5</v>
@@ -4941,10 +4995,10 @@
         <v>4</v>
       </c>
       <c r="B304" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C304" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D304" t="s">
         <v>5</v>
@@ -4955,10 +5009,10 @@
         <v>4</v>
       </c>
       <c r="B305" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C305" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D305" t="s">
         <v>5</v>
@@ -4969,10 +5023,10 @@
         <v>4</v>
       </c>
       <c r="B306" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C306" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D306" t="s">
         <v>5</v>
@@ -4983,10 +5037,10 @@
         <v>4</v>
       </c>
       <c r="B307" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C307" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D307" t="s">
         <v>5</v>
@@ -4997,10 +5051,10 @@
         <v>4</v>
       </c>
       <c r="B308" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C308" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D308" t="s">
         <v>5</v>
@@ -5011,10 +5065,10 @@
         <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C309" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D309" t="s">
         <v>5</v>
@@ -5025,10 +5079,10 @@
         <v>4</v>
       </c>
       <c r="B310" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C310" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D310" t="s">
         <v>5</v>
@@ -5039,10 +5093,10 @@
         <v>4</v>
       </c>
       <c r="B311" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C311" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D311" t="s">
         <v>5</v>
@@ -5053,10 +5107,10 @@
         <v>4</v>
       </c>
       <c r="B312" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C312" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D312" t="s">
         <v>5</v>
@@ -5067,10 +5121,10 @@
         <v>4</v>
       </c>
       <c r="B313" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C313" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D313" t="s">
         <v>5</v>
@@ -5081,10 +5135,10 @@
         <v>4</v>
       </c>
       <c r="B314" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C314" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D314" t="s">
         <v>5</v>
@@ -5095,10 +5149,10 @@
         <v>4</v>
       </c>
       <c r="B315" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C315" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D315" t="s">
         <v>5</v>
@@ -5109,10 +5163,10 @@
         <v>4</v>
       </c>
       <c r="B316" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C316" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D316" t="s">
         <v>5</v>
@@ -5123,10 +5177,10 @@
         <v>4</v>
       </c>
       <c r="B317" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C317" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D317" t="s">
         <v>5</v>
@@ -5137,10 +5191,10 @@
         <v>4</v>
       </c>
       <c r="B318" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C318" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D318" t="s">
         <v>5</v>
@@ -5151,10 +5205,10 @@
         <v>4</v>
       </c>
       <c r="B319" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C319" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D319" t="s">
         <v>5</v>
@@ -5165,10 +5219,10 @@
         <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C320" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D320" t="s">
         <v>5</v>
@@ -5179,10 +5233,10 @@
         <v>4</v>
       </c>
       <c r="B321" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C321" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D321" t="s">
         <v>5</v>
@@ -5193,10 +5247,10 @@
         <v>4</v>
       </c>
       <c r="B322" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C322" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D322" t="s">
         <v>5</v>
@@ -5207,10 +5261,10 @@
         <v>4</v>
       </c>
       <c r="B323" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C323" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D323" t="s">
         <v>5</v>
@@ -5221,10 +5275,10 @@
         <v>4</v>
       </c>
       <c r="B324" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C324" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D324" t="s">
         <v>5</v>
@@ -5235,10 +5289,10 @@
         <v>4</v>
       </c>
       <c r="B325" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C325" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D325" t="s">
         <v>5</v>
@@ -5249,10 +5303,10 @@
         <v>4</v>
       </c>
       <c r="B326" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C326" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D326" t="s">
         <v>5</v>
@@ -5263,10 +5317,10 @@
         <v>4</v>
       </c>
       <c r="B327" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C327" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D327" t="s">
         <v>5</v>
@@ -5277,10 +5331,10 @@
         <v>4</v>
       </c>
       <c r="B328" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C328" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D328" t="s">
         <v>5</v>
@@ -5291,10 +5345,10 @@
         <v>4</v>
       </c>
       <c r="B329" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C329" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D329" t="s">
         <v>5</v>
@@ -5305,10 +5359,10 @@
         <v>4</v>
       </c>
       <c r="B330" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C330" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D330" t="s">
         <v>5</v>
@@ -5319,10 +5373,10 @@
         <v>4</v>
       </c>
       <c r="B331" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C331" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D331" t="s">
         <v>5</v>
@@ -5333,10 +5387,10 @@
         <v>4</v>
       </c>
       <c r="B332" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C332" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D332" t="s">
         <v>5</v>
@@ -5347,10 +5401,10 @@
         <v>4</v>
       </c>
       <c r="B333" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C333" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D333" t="s">
         <v>5</v>
@@ -5361,10 +5415,10 @@
         <v>4</v>
       </c>
       <c r="B334" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C334" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D334" t="s">
         <v>5</v>
@@ -5375,10 +5429,10 @@
         <v>4</v>
       </c>
       <c r="B335" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C335" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D335" t="s">
         <v>5</v>
@@ -5389,10 +5443,10 @@
         <v>4</v>
       </c>
       <c r="B336" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C336" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D336" t="s">
         <v>5</v>
@@ -5403,10 +5457,10 @@
         <v>4</v>
       </c>
       <c r="B337" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C337" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D337" t="s">
         <v>5</v>
@@ -5417,10 +5471,10 @@
         <v>4</v>
       </c>
       <c r="B338" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C338" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D338" t="s">
         <v>5</v>
@@ -5431,10 +5485,10 @@
         <v>4</v>
       </c>
       <c r="B339" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C339" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D339" t="s">
         <v>5</v>
@@ -5445,10 +5499,10 @@
         <v>4</v>
       </c>
       <c r="B340" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C340" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D340" t="s">
         <v>5</v>
@@ -5459,10 +5513,10 @@
         <v>4</v>
       </c>
       <c r="B341" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C341" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D341" t="s">
         <v>5</v>
@@ -5473,10 +5527,10 @@
         <v>4</v>
       </c>
       <c r="B342" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C342" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D342" t="s">
         <v>5</v>
@@ -5487,10 +5541,10 @@
         <v>4</v>
       </c>
       <c r="B343" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C343" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D343" t="s">
         <v>5</v>
@@ -5501,10 +5555,10 @@
         <v>4</v>
       </c>
       <c r="B344" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C344" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D344" t="s">
         <v>5</v>
@@ -5515,10 +5569,10 @@
         <v>4</v>
       </c>
       <c r="B345" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C345" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D345" t="s">
         <v>5</v>
@@ -5529,10 +5583,10 @@
         <v>4</v>
       </c>
       <c r="B346" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C346" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D346" t="s">
         <v>5</v>
@@ -5543,10 +5597,10 @@
         <v>4</v>
       </c>
       <c r="B347" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C347" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D347" t="s">
         <v>5</v>
@@ -5557,10 +5611,10 @@
         <v>4</v>
       </c>
       <c r="B348" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C348" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D348" t="s">
         <v>5</v>
@@ -5571,10 +5625,10 @@
         <v>4</v>
       </c>
       <c r="B349" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C349" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D349" t="s">
         <v>5</v>
@@ -5585,10 +5639,10 @@
         <v>4</v>
       </c>
       <c r="B350" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C350" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D350" t="s">
         <v>5</v>
@@ -5599,10 +5653,10 @@
         <v>4</v>
       </c>
       <c r="B351" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C351" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D351" t="s">
         <v>5</v>
@@ -5613,10 +5667,10 @@
         <v>4</v>
       </c>
       <c r="B352" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C352" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D352" t="s">
         <v>5</v>
@@ -5627,10 +5681,10 @@
         <v>4</v>
       </c>
       <c r="B353" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C353" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D353" t="s">
         <v>5</v>
@@ -5641,10 +5695,10 @@
         <v>4</v>
       </c>
       <c r="B354" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C354" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D354" t="s">
         <v>5</v>
@@ -5655,10 +5709,10 @@
         <v>4</v>
       </c>
       <c r="B355" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C355" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D355" t="s">
         <v>5</v>
@@ -5669,10 +5723,10 @@
         <v>4</v>
       </c>
       <c r="B356" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C356" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D356" t="s">
         <v>5</v>
@@ -5683,10 +5737,10 @@
         <v>4</v>
       </c>
       <c r="B357" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C357" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D357" t="s">
         <v>5</v>
@@ -5697,10 +5751,10 @@
         <v>4</v>
       </c>
       <c r="B358" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C358" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D358" t="s">
         <v>5</v>
@@ -5711,10 +5765,10 @@
         <v>4</v>
       </c>
       <c r="B359" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C359" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D359" t="s">
         <v>5</v>
@@ -5725,10 +5779,10 @@
         <v>4</v>
       </c>
       <c r="B360" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C360" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D360" t="s">
         <v>5</v>
@@ -5739,10 +5793,10 @@
         <v>4</v>
       </c>
       <c r="B361" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C361" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D361" t="s">
         <v>5</v>
@@ -5753,10 +5807,10 @@
         <v>4</v>
       </c>
       <c r="B362" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C362" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D362" t="s">
         <v>5</v>
@@ -5767,10 +5821,10 @@
         <v>4</v>
       </c>
       <c r="B363" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C363" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D363" t="s">
         <v>5</v>
@@ -5781,10 +5835,10 @@
         <v>4</v>
       </c>
       <c r="B364" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C364" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D364" t="s">
         <v>5</v>
@@ -5795,10 +5849,10 @@
         <v>4</v>
       </c>
       <c r="B365" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C365" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D365" t="s">
         <v>5</v>
@@ -5809,10 +5863,10 @@
         <v>4</v>
       </c>
       <c r="B366" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C366" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D366" t="s">
         <v>5</v>
@@ -5823,10 +5877,10 @@
         <v>4</v>
       </c>
       <c r="B367" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C367" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D367" t="s">
         <v>5</v>
@@ -5837,10 +5891,10 @@
         <v>4</v>
       </c>
       <c r="B368" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C368" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D368" t="s">
         <v>5</v>
@@ -5851,10 +5905,10 @@
         <v>4</v>
       </c>
       <c r="B369" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C369" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D369" t="s">
         <v>5</v>
@@ -5865,10 +5919,10 @@
         <v>4</v>
       </c>
       <c r="B370" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C370" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D370" t="s">
         <v>5</v>
@@ -5879,10 +5933,10 @@
         <v>4</v>
       </c>
       <c r="B371" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C371" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D371" t="s">
         <v>5</v>
@@ -5893,10 +5947,10 @@
         <v>4</v>
       </c>
       <c r="B372" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C372" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D372" t="s">
         <v>5</v>
@@ -5907,10 +5961,10 @@
         <v>4</v>
       </c>
       <c r="B373" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C373" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D373" t="s">
         <v>5</v>
@@ -5921,10 +5975,10 @@
         <v>4</v>
       </c>
       <c r="B374" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C374" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D374" t="s">
         <v>5</v>
@@ -5935,10 +5989,10 @@
         <v>4</v>
       </c>
       <c r="B375" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C375" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D375" t="s">
         <v>5</v>
@@ -5949,10 +6003,10 @@
         <v>4</v>
       </c>
       <c r="B376" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C376" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D376" t="s">
         <v>5</v>
@@ -5963,10 +6017,10 @@
         <v>4</v>
       </c>
       <c r="B377" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C377" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D377" t="s">
         <v>5</v>
@@ -5977,10 +6031,10 @@
         <v>4</v>
       </c>
       <c r="B378" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C378" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D378" t="s">
         <v>5</v>
@@ -5991,10 +6045,10 @@
         <v>4</v>
       </c>
       <c r="B379" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C379" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D379" t="s">
         <v>5</v>
@@ -6005,10 +6059,10 @@
         <v>4</v>
       </c>
       <c r="B380" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C380" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D380" t="s">
         <v>5</v>
@@ -6019,10 +6073,10 @@
         <v>4</v>
       </c>
       <c r="B381" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C381" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D381" t="s">
         <v>5</v>
@@ -6033,10 +6087,10 @@
         <v>4</v>
       </c>
       <c r="B382" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C382" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D382" t="s">
         <v>5</v>
@@ -6047,10 +6101,10 @@
         <v>4</v>
       </c>
       <c r="B383" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C383" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D383" t="s">
         <v>5</v>
@@ -6061,10 +6115,10 @@
         <v>4</v>
       </c>
       <c r="B384" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C384" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D384" t="s">
         <v>5</v>
@@ -6075,10 +6129,10 @@
         <v>4</v>
       </c>
       <c r="B385" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C385" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D385" t="s">
         <v>5</v>
@@ -6089,10 +6143,10 @@
         <v>4</v>
       </c>
       <c r="B386" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C386" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D386" t="s">
         <v>5</v>
@@ -6103,10 +6157,10 @@
         <v>4</v>
       </c>
       <c r="B387" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C387" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D387" t="s">
         <v>5</v>
@@ -6117,10 +6171,10 @@
         <v>4</v>
       </c>
       <c r="B388" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C388" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D388" t="s">
         <v>5</v>
@@ -6131,10 +6185,10 @@
         <v>4</v>
       </c>
       <c r="B389" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C389" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D389" t="s">
         <v>5</v>
@@ -6145,10 +6199,10 @@
         <v>4</v>
       </c>
       <c r="B390" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C390" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D390" t="s">
         <v>5</v>
@@ -6159,10 +6213,10 @@
         <v>4</v>
       </c>
       <c r="B391" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C391" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D391" t="s">
         <v>5</v>
@@ -6173,10 +6227,10 @@
         <v>4</v>
       </c>
       <c r="B392" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C392" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D392" t="s">
         <v>5</v>
@@ -6187,10 +6241,10 @@
         <v>4</v>
       </c>
       <c r="B393" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C393" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D393" t="s">
         <v>5</v>
@@ -6201,10 +6255,10 @@
         <v>4</v>
       </c>
       <c r="B394" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C394" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D394" t="s">
         <v>5</v>
@@ -6215,10 +6269,10 @@
         <v>4</v>
       </c>
       <c r="B395" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C395" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D395" t="s">
         <v>5</v>
@@ -6229,10 +6283,10 @@
         <v>4</v>
       </c>
       <c r="B396" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C396" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D396" t="s">
         <v>5</v>
@@ -6243,10 +6297,10 @@
         <v>4</v>
       </c>
       <c r="B397" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C397" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D397" t="s">
         <v>5</v>
@@ -6257,10 +6311,10 @@
         <v>4</v>
       </c>
       <c r="B398" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C398" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D398" t="s">
         <v>5</v>
@@ -6271,10 +6325,10 @@
         <v>4</v>
       </c>
       <c r="B399" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C399" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D399" t="s">
         <v>5</v>
@@ -6285,10 +6339,10 @@
         <v>4</v>
       </c>
       <c r="B400" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C400" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D400" t="s">
         <v>5</v>
@@ -6299,10 +6353,10 @@
         <v>4</v>
       </c>
       <c r="B401" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C401" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -6313,10 +6367,10 @@
         <v>4</v>
       </c>
       <c r="B402" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C402" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D402" t="s">
         <v>5</v>
@@ -6327,10 +6381,10 @@
         <v>4</v>
       </c>
       <c r="B403" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C403" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D403" t="s">
         <v>5</v>
@@ -6341,10 +6395,10 @@
         <v>4</v>
       </c>
       <c r="B404" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C404" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D404" t="s">
         <v>5</v>
@@ -6355,10 +6409,10 @@
         <v>4</v>
       </c>
       <c r="B405" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C405" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D405" t="s">
         <v>5</v>
@@ -6369,10 +6423,10 @@
         <v>4</v>
       </c>
       <c r="B406" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C406" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D406" t="s">
         <v>5</v>
@@ -6383,10 +6437,10 @@
         <v>4</v>
       </c>
       <c r="B407" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C407" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D407" t="s">
         <v>5</v>
@@ -6397,10 +6451,10 @@
         <v>4</v>
       </c>
       <c r="B408" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C408" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D408" t="s">
         <v>5</v>
@@ -6411,10 +6465,10 @@
         <v>4</v>
       </c>
       <c r="B409" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C409" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D409" t="s">
         <v>5</v>
@@ -6425,10 +6479,10 @@
         <v>4</v>
       </c>
       <c r="B410" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C410" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D410" t="s">
         <v>5</v>
@@ -6439,10 +6493,10 @@
         <v>4</v>
       </c>
       <c r="B411" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C411" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D411" t="s">
         <v>5</v>
@@ -6453,10 +6507,10 @@
         <v>4</v>
       </c>
       <c r="B412" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C412" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D412" t="s">
         <v>5</v>
@@ -6467,10 +6521,10 @@
         <v>4</v>
       </c>
       <c r="B413" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C413" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D413" t="s">
         <v>5</v>
@@ -6481,10 +6535,10 @@
         <v>4</v>
       </c>
       <c r="B414" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C414" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D414" t="s">
         <v>5</v>
@@ -6495,10 +6549,10 @@
         <v>4</v>
       </c>
       <c r="B415" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C415" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D415" t="s">
         <v>5</v>
@@ -6509,10 +6563,10 @@
         <v>4</v>
       </c>
       <c r="B416" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C416" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D416" t="s">
         <v>5</v>
@@ -6523,10 +6577,10 @@
         <v>4</v>
       </c>
       <c r="B417" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C417" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D417" t="s">
         <v>5</v>
@@ -6537,10 +6591,10 @@
         <v>4</v>
       </c>
       <c r="B418" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C418" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D418" t="s">
         <v>5</v>
@@ -6551,10 +6605,10 @@
         <v>4</v>
       </c>
       <c r="B419" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C419" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D419" t="s">
         <v>5</v>
@@ -6565,10 +6619,10 @@
         <v>4</v>
       </c>
       <c r="B420" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C420" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D420" t="s">
         <v>5</v>
@@ -6579,10 +6633,10 @@
         <v>4</v>
       </c>
       <c r="B421" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C421" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D421" t="s">
         <v>5</v>
@@ -6593,10 +6647,10 @@
         <v>4</v>
       </c>
       <c r="B422" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C422" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D422" t="s">
         <v>5</v>
@@ -6607,10 +6661,10 @@
         <v>4</v>
       </c>
       <c r="B423" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C423" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D423" t="s">
         <v>5</v>
@@ -6621,10 +6675,10 @@
         <v>4</v>
       </c>
       <c r="B424" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C424" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D424" t="s">
         <v>5</v>
@@ -6635,10 +6689,10 @@
         <v>4</v>
       </c>
       <c r="B425" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C425" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D425" t="s">
         <v>5</v>
@@ -6649,10 +6703,10 @@
         <v>4</v>
       </c>
       <c r="B426" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C426" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D426" t="s">
         <v>5</v>
@@ -6663,10 +6717,10 @@
         <v>4</v>
       </c>
       <c r="B427" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C427" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D427" t="s">
         <v>5</v>
@@ -6677,10 +6731,10 @@
         <v>4</v>
       </c>
       <c r="B428" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C428" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D428" t="s">
         <v>5</v>
@@ -6691,10 +6745,10 @@
         <v>4</v>
       </c>
       <c r="B429" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C429" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D429" t="s">
         <v>5</v>
@@ -6705,10 +6759,10 @@
         <v>4</v>
       </c>
       <c r="B430" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C430" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D430" t="s">
         <v>5</v>
@@ -6719,10 +6773,10 @@
         <v>4</v>
       </c>
       <c r="B431" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C431" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D431" t="s">
         <v>5</v>
@@ -6733,10 +6787,10 @@
         <v>4</v>
       </c>
       <c r="B432" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C432" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D432" t="s">
         <v>5</v>
@@ -6747,10 +6801,10 @@
         <v>4</v>
       </c>
       <c r="B433" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C433" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D433" t="s">
         <v>5</v>
@@ -6761,10 +6815,10 @@
         <v>4</v>
       </c>
       <c r="B434" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C434" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D434" t="s">
         <v>5</v>
@@ -6775,10 +6829,10 @@
         <v>4</v>
       </c>
       <c r="B435" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C435" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D435" t="s">
         <v>5</v>
@@ -6789,10 +6843,10 @@
         <v>4</v>
       </c>
       <c r="B436" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C436" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D436" t="s">
         <v>5</v>
@@ -6803,10 +6857,10 @@
         <v>4</v>
       </c>
       <c r="B437" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C437" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D437" t="s">
         <v>5</v>
@@ -6817,10 +6871,10 @@
         <v>4</v>
       </c>
       <c r="B438" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C438" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D438" t="s">
         <v>5</v>
@@ -6831,10 +6885,10 @@
         <v>4</v>
       </c>
       <c r="B439" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C439" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D439" t="s">
         <v>5</v>
@@ -6845,10 +6899,10 @@
         <v>4</v>
       </c>
       <c r="B440" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C440" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D440" t="s">
         <v>5</v>
@@ -6859,10 +6913,10 @@
         <v>4</v>
       </c>
       <c r="B441" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C441" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D441" t="s">
         <v>5</v>
@@ -6873,10 +6927,10 @@
         <v>4</v>
       </c>
       <c r="B442" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C442" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D442" t="s">
         <v>5</v>
@@ -6890,9 +6944,1269 @@
         <v>87</v>
       </c>
       <c r="C443" t="s">
+        <v>88</v>
+      </c>
+      <c r="D443" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B444" t="s">
+        <v>87</v>
+      </c>
+      <c r="C444" t="s">
+        <v>88</v>
+      </c>
+      <c r="D444" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B445" t="s">
+        <v>87</v>
+      </c>
+      <c r="C445" t="s">
+        <v>88</v>
+      </c>
+      <c r="D445" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B446" t="s">
+        <v>87</v>
+      </c>
+      <c r="C446" t="s">
+        <v>88</v>
+      </c>
+      <c r="D446" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>4</v>
+      </c>
+      <c r="B447" t="s">
+        <v>87</v>
+      </c>
+      <c r="C447" t="s">
+        <v>89</v>
+      </c>
+      <c r="D447" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>4</v>
+      </c>
+      <c r="B448" t="s">
+        <v>87</v>
+      </c>
+      <c r="C448" t="s">
+        <v>89</v>
+      </c>
+      <c r="D448" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>4</v>
+      </c>
+      <c r="B449" t="s">
+        <v>87</v>
+      </c>
+      <c r="C449" t="s">
+        <v>89</v>
+      </c>
+      <c r="D449" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>4</v>
+      </c>
+      <c r="B450" t="s">
+        <v>87</v>
+      </c>
+      <c r="C450" t="s">
+        <v>89</v>
+      </c>
+      <c r="D450" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>4</v>
+      </c>
+      <c r="B451" t="s">
+        <v>87</v>
+      </c>
+      <c r="C451" t="s">
+        <v>89</v>
+      </c>
+      <c r="D451" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>4</v>
+      </c>
+      <c r="B452" t="s">
+        <v>87</v>
+      </c>
+      <c r="C452" t="s">
+        <v>89</v>
+      </c>
+      <c r="D452" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B453" t="s">
+        <v>87</v>
+      </c>
+      <c r="C453" t="s">
+        <v>89</v>
+      </c>
+      <c r="D453" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>4</v>
+      </c>
+      <c r="B454" t="s">
+        <v>87</v>
+      </c>
+      <c r="C454" t="s">
+        <v>89</v>
+      </c>
+      <c r="D454" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>4</v>
+      </c>
+      <c r="B455" t="s">
+        <v>87</v>
+      </c>
+      <c r="C455" t="s">
+        <v>89</v>
+      </c>
+      <c r="D455" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>4</v>
+      </c>
+      <c r="B456" t="s">
+        <v>87</v>
+      </c>
+      <c r="C456" t="s">
+        <v>89</v>
+      </c>
+      <c r="D456" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>4</v>
+      </c>
+      <c r="B457" t="s">
+        <v>87</v>
+      </c>
+      <c r="C457" t="s">
+        <v>89</v>
+      </c>
+      <c r="D457" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B458" t="s">
+        <v>87</v>
+      </c>
+      <c r="C458" t="s">
+        <v>89</v>
+      </c>
+      <c r="D458" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>4</v>
+      </c>
+      <c r="B459" t="s">
+        <v>87</v>
+      </c>
+      <c r="C459" t="s">
+        <v>89</v>
+      </c>
+      <c r="D459" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>4</v>
+      </c>
+      <c r="B460" t="s">
+        <v>87</v>
+      </c>
+      <c r="C460" t="s">
+        <v>89</v>
+      </c>
+      <c r="D460" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B461" t="s">
+        <v>87</v>
+      </c>
+      <c r="C461" t="s">
+        <v>89</v>
+      </c>
+      <c r="D461" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B462" t="s">
+        <v>87</v>
+      </c>
+      <c r="C462" t="s">
+        <v>89</v>
+      </c>
+      <c r="D462" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>4</v>
+      </c>
+      <c r="B463" t="s">
+        <v>87</v>
+      </c>
+      <c r="C463" t="s">
+        <v>90</v>
+      </c>
+      <c r="D463" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B464" t="s">
+        <v>87</v>
+      </c>
+      <c r="C464" t="s">
+        <v>90</v>
+      </c>
+      <c r="D464" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B465" t="s">
+        <v>87</v>
+      </c>
+      <c r="C465" t="s">
+        <v>90</v>
+      </c>
+      <c r="D465" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B466" t="s">
+        <v>87</v>
+      </c>
+      <c r="C466" t="s">
+        <v>90</v>
+      </c>
+      <c r="D466" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B467" t="s">
+        <v>87</v>
+      </c>
+      <c r="C467" t="s">
+        <v>90</v>
+      </c>
+      <c r="D467" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B468" t="s">
+        <v>87</v>
+      </c>
+      <c r="C468" t="s">
+        <v>90</v>
+      </c>
+      <c r="D468" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B469" t="s">
+        <v>87</v>
+      </c>
+      <c r="C469" t="s">
+        <v>90</v>
+      </c>
+      <c r="D469" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B470" t="s">
+        <v>87</v>
+      </c>
+      <c r="C470" t="s">
+        <v>90</v>
+      </c>
+      <c r="D470" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>4</v>
+      </c>
+      <c r="B471" t="s">
+        <v>87</v>
+      </c>
+      <c r="C471" t="s">
+        <v>91</v>
+      </c>
+      <c r="D471" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>4</v>
+      </c>
+      <c r="B472" t="s">
+        <v>87</v>
+      </c>
+      <c r="C472" t="s">
+        <v>91</v>
+      </c>
+      <c r="D472" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>4</v>
+      </c>
+      <c r="B473" t="s">
+        <v>87</v>
+      </c>
+      <c r="C473" t="s">
+        <v>91</v>
+      </c>
+      <c r="D473" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>4</v>
+      </c>
+      <c r="B474" t="s">
+        <v>87</v>
+      </c>
+      <c r="C474" t="s">
+        <v>91</v>
+      </c>
+      <c r="D474" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B475" t="s">
+        <v>87</v>
+      </c>
+      <c r="C475" t="s">
+        <v>91</v>
+      </c>
+      <c r="D475" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>4</v>
+      </c>
+      <c r="B476" t="s">
+        <v>87</v>
+      </c>
+      <c r="C476" t="s">
+        <v>91</v>
+      </c>
+      <c r="D476" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>4</v>
+      </c>
+      <c r="B477" t="s">
+        <v>87</v>
+      </c>
+      <c r="C477" t="s">
+        <v>92</v>
+      </c>
+      <c r="D477" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B478" t="s">
+        <v>87</v>
+      </c>
+      <c r="C478" t="s">
+        <v>92</v>
+      </c>
+      <c r="D478" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>4</v>
+      </c>
+      <c r="B479" t="s">
+        <v>87</v>
+      </c>
+      <c r="C479" t="s">
+        <v>92</v>
+      </c>
+      <c r="D479" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B480" t="s">
+        <v>87</v>
+      </c>
+      <c r="C480" t="s">
+        <v>92</v>
+      </c>
+      <c r="D480" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B481" t="s">
+        <v>87</v>
+      </c>
+      <c r="C481" t="s">
+        <v>92</v>
+      </c>
+      <c r="D481" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>4</v>
+      </c>
+      <c r="B482" t="s">
+        <v>87</v>
+      </c>
+      <c r="C482" t="s">
+        <v>92</v>
+      </c>
+      <c r="D482" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>4</v>
+      </c>
+      <c r="B483" t="s">
+        <v>87</v>
+      </c>
+      <c r="C483" t="s">
+        <v>92</v>
+      </c>
+      <c r="D483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>4</v>
+      </c>
+      <c r="B484" t="s">
+        <v>87</v>
+      </c>
+      <c r="C484" t="s">
+        <v>92</v>
+      </c>
+      <c r="D484" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>4</v>
+      </c>
+      <c r="B485" t="s">
+        <v>87</v>
+      </c>
+      <c r="C485" t="s">
+        <v>92</v>
+      </c>
+      <c r="D485" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B486" t="s">
+        <v>87</v>
+      </c>
+      <c r="C486" t="s">
+        <v>92</v>
+      </c>
+      <c r="D486" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>4</v>
+      </c>
+      <c r="B487" t="s">
+        <v>87</v>
+      </c>
+      <c r="C487" t="s">
+        <v>92</v>
+      </c>
+      <c r="D487" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B488" t="s">
+        <v>87</v>
+      </c>
+      <c r="C488" t="s">
+        <v>92</v>
+      </c>
+      <c r="D488" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B489" t="s">
+        <v>87</v>
+      </c>
+      <c r="C489" t="s">
+        <v>93</v>
+      </c>
+      <c r="D489" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>4</v>
+      </c>
+      <c r="B490" t="s">
+        <v>87</v>
+      </c>
+      <c r="C490" t="s">
+        <v>93</v>
+      </c>
+      <c r="D490" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B491" t="s">
+        <v>87</v>
+      </c>
+      <c r="C491" t="s">
+        <v>93</v>
+      </c>
+      <c r="D491" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>4</v>
+      </c>
+      <c r="B492" t="s">
+        <v>87</v>
+      </c>
+      <c r="C492" t="s">
+        <v>93</v>
+      </c>
+      <c r="D492" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>4</v>
+      </c>
+      <c r="B493" t="s">
+        <v>87</v>
+      </c>
+      <c r="C493" t="s">
+        <v>93</v>
+      </c>
+      <c r="D493" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B494" t="s">
+        <v>87</v>
+      </c>
+      <c r="C494" t="s">
+        <v>93</v>
+      </c>
+      <c r="D494" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B495" t="s">
+        <v>87</v>
+      </c>
+      <c r="C495" t="s">
+        <v>93</v>
+      </c>
+      <c r="D495" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B496" t="s">
+        <v>87</v>
+      </c>
+      <c r="C496" t="s">
+        <v>93</v>
+      </c>
+      <c r="D496" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>4</v>
+      </c>
+      <c r="B497" t="s">
+        <v>87</v>
+      </c>
+      <c r="C497" t="s">
+        <v>93</v>
+      </c>
+      <c r="D497" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B498" t="s">
+        <v>87</v>
+      </c>
+      <c r="C498" t="s">
+        <v>93</v>
+      </c>
+      <c r="D498" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B499" t="s">
+        <v>87</v>
+      </c>
+      <c r="C499" t="s">
+        <v>93</v>
+      </c>
+      <c r="D499" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>4</v>
+      </c>
+      <c r="B500" t="s">
+        <v>87</v>
+      </c>
+      <c r="C500" t="s">
+        <v>93</v>
+      </c>
+      <c r="D500" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B501" t="s">
+        <v>87</v>
+      </c>
+      <c r="C501" t="s">
+        <v>94</v>
+      </c>
+      <c r="D501" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>4</v>
+      </c>
+      <c r="B502" t="s">
+        <v>87</v>
+      </c>
+      <c r="C502" t="s">
+        <v>94</v>
+      </c>
+      <c r="D502" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>4</v>
+      </c>
+      <c r="B503" t="s">
+        <v>87</v>
+      </c>
+      <c r="C503" t="s">
+        <v>94</v>
+      </c>
+      <c r="D503" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>4</v>
+      </c>
+      <c r="B504" t="s">
+        <v>87</v>
+      </c>
+      <c r="C504" t="s">
+        <v>94</v>
+      </c>
+      <c r="D504" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>4</v>
+      </c>
+      <c r="B505" t="s">
+        <v>87</v>
+      </c>
+      <c r="C505" t="s">
+        <v>94</v>
+      </c>
+      <c r="D505" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>4</v>
+      </c>
+      <c r="B506" t="s">
+        <v>87</v>
+      </c>
+      <c r="C506" t="s">
+        <v>94</v>
+      </c>
+      <c r="D506" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>4</v>
+      </c>
+      <c r="B507" t="s">
+        <v>87</v>
+      </c>
+      <c r="C507" t="s">
+        <v>94</v>
+      </c>
+      <c r="D507" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>4</v>
+      </c>
+      <c r="B508" t="s">
+        <v>87</v>
+      </c>
+      <c r="C508" t="s">
+        <v>94</v>
+      </c>
+      <c r="D508" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>4</v>
+      </c>
+      <c r="B509" t="s">
+        <v>87</v>
+      </c>
+      <c r="C509" t="s">
+        <v>94</v>
+      </c>
+      <c r="D509" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>4</v>
+      </c>
+      <c r="B510" t="s">
+        <v>87</v>
+      </c>
+      <c r="C510" t="s">
+        <v>95</v>
+      </c>
+      <c r="D510" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>4</v>
+      </c>
+      <c r="B511" t="s">
+        <v>87</v>
+      </c>
+      <c r="C511" t="s">
+        <v>95</v>
+      </c>
+      <c r="D511" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>4</v>
+      </c>
+      <c r="B512" t="s">
+        <v>87</v>
+      </c>
+      <c r="C512" t="s">
+        <v>95</v>
+      </c>
+      <c r="D512" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>4</v>
+      </c>
+      <c r="B513" t="s">
+        <v>87</v>
+      </c>
+      <c r="C513" t="s">
+        <v>95</v>
+      </c>
+      <c r="D513" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>4</v>
+      </c>
+      <c r="B514" t="s">
+        <v>87</v>
+      </c>
+      <c r="C514" t="s">
+        <v>95</v>
+      </c>
+      <c r="D514" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>4</v>
+      </c>
+      <c r="B515" t="s">
+        <v>87</v>
+      </c>
+      <c r="C515" t="s">
+        <v>95</v>
+      </c>
+      <c r="D515" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>4</v>
+      </c>
+      <c r="B516" t="s">
+        <v>87</v>
+      </c>
+      <c r="C516" t="s">
         <v>96</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D516" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>4</v>
+      </c>
+      <c r="B517" t="s">
+        <v>87</v>
+      </c>
+      <c r="C517" t="s">
+        <v>96</v>
+      </c>
+      <c r="D517" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>4</v>
+      </c>
+      <c r="B518" t="s">
+        <v>87</v>
+      </c>
+      <c r="C518" t="s">
+        <v>96</v>
+      </c>
+      <c r="D518" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>4</v>
+      </c>
+      <c r="B519" t="s">
+        <v>87</v>
+      </c>
+      <c r="C519" t="s">
+        <v>96</v>
+      </c>
+      <c r="D519" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>4</v>
+      </c>
+      <c r="B520" t="s">
+        <v>87</v>
+      </c>
+      <c r="C520" t="s">
+        <v>96</v>
+      </c>
+      <c r="D520" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>4</v>
+      </c>
+      <c r="B521" t="s">
+        <v>87</v>
+      </c>
+      <c r="C521" t="s">
+        <v>96</v>
+      </c>
+      <c r="D521" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>4</v>
+      </c>
+      <c r="B522" t="s">
+        <v>87</v>
+      </c>
+      <c r="C522" t="s">
+        <v>96</v>
+      </c>
+      <c r="D522" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>4</v>
+      </c>
+      <c r="B523" t="s">
+        <v>87</v>
+      </c>
+      <c r="C523" t="s">
+        <v>96</v>
+      </c>
+      <c r="D523" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>4</v>
+      </c>
+      <c r="B524" t="s">
+        <v>87</v>
+      </c>
+      <c r="C524" t="s">
+        <v>96</v>
+      </c>
+      <c r="D524" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>4</v>
+      </c>
+      <c r="B525" t="s">
+        <v>87</v>
+      </c>
+      <c r="C525" t="s">
+        <v>96</v>
+      </c>
+      <c r="D525" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>4</v>
+      </c>
+      <c r="B526" t="s">
+        <v>87</v>
+      </c>
+      <c r="C526" t="s">
+        <v>96</v>
+      </c>
+      <c r="D526" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>4</v>
+      </c>
+      <c r="B527" t="s">
+        <v>87</v>
+      </c>
+      <c r="C527" t="s">
+        <v>96</v>
+      </c>
+      <c r="D527" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>4</v>
+      </c>
+      <c r="B528" t="s">
+        <v>87</v>
+      </c>
+      <c r="C528" t="s">
+        <v>114</v>
+      </c>
+      <c r="D528" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>4</v>
+      </c>
+      <c r="B529" t="s">
+        <v>87</v>
+      </c>
+      <c r="C529" t="s">
+        <v>114</v>
+      </c>
+      <c r="D529" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>4</v>
+      </c>
+      <c r="B530" t="s">
+        <v>87</v>
+      </c>
+      <c r="C530" t="s">
+        <v>114</v>
+      </c>
+      <c r="D530" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>4</v>
+      </c>
+      <c r="B531" t="s">
+        <v>87</v>
+      </c>
+      <c r="C531" t="s">
+        <v>114</v>
+      </c>
+      <c r="D531" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>4</v>
+      </c>
+      <c r="B532" t="s">
+        <v>87</v>
+      </c>
+      <c r="C532" t="s">
+        <v>114</v>
+      </c>
+      <c r="D532" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>4</v>
+      </c>
+      <c r="B533" t="s">
+        <v>87</v>
+      </c>
+      <c r="C533" t="s">
+        <v>114</v>
+      </c>
+      <c r="D533" t="s">
         <v>5</v>
       </c>
     </row>
